--- a/CreateExcelDependentDataValidationLists.xlsx
+++ b/CreateExcelDependentDataValidationLists.xlsx
@@ -112,7 +112,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="6.15625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="6.3828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
